--- a/UZr/U_Zr_FP_vaspwork.xlsx
+++ b/UZr/U_Zr_FP_vaspwork.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5BF6D-A1A6-FD4D-8FB9-D3F25AB56D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F681D-7A66-BB4C-8828-74231E1BB78A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1660" windowWidth="27080" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="2640" windowWidth="27080" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UZR FCCI" sheetId="6" r:id="rId1"/>
     <sheet name="charts" sheetId="8" r:id="rId2"/>
     <sheet name="spin2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'UZR FCCI'!$H$37:$H$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'UZR FCCI'!$H$44:$H$50</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'UZR FCCI'!$J$37:$J$41</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'UZR FCCI'!$J$44:$J$50</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'UZR FCCI'!$J$37:$J$41</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'UZR FCCI'!$J$44:$J$50</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'UZR FCCI'!$H$37:$H$41</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'UZR FCCI'!$H$44:$H$50</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'UZR FCCI'!$J$37:$J$41</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'UZR FCCI'!$J$44:$J$50</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'UZR FCCI'!$H$37:$H$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'UZR FCCI'!$H$44:$H$50</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -5741,8 +5727,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/UZr/U_Zr_FP_vaspwork.xlsx
+++ b/UZr/U_Zr_FP_vaspwork.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F681D-7A66-BB4C-8828-74231E1BB78A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06547A1-27AE-CF4E-8483-AB012643CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2640" windowWidth="27080" windowHeight="20980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="27080" windowHeight="20760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UZR FCCI" sheetId="6" r:id="rId1"/>
     <sheet name="charts" sheetId="8" r:id="rId2"/>
     <sheet name="spin2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5728,7 +5739,7 @@
   <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
